--- a/st00.docs/html&css정리.20180406.xlsx
+++ b/st00.docs/html&css정리.20180406.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="244">
   <si>
     <t>텍스트 태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -942,17 +942,12 @@
     <t xml:space="preserve">플렉스 아이템의 기본 크기를 설정하기 위한 속성입니다. width 속성에서 사용할 수 있는 모든 값을 사용 할 수 있습니다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t xml:space="preserve">line-height: 4em;
-line-heighr: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1229,6 +1224,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1237,27 +1253,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1804,11 +1799,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
@@ -1820,27 +1815,27 @@
     <col min="13" max="13" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="44" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -1851,9 +1846,9 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="25" t="s">
         <v>30</v>
       </c>
@@ -1862,9 +1857,9 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="25" t="s">
         <v>28</v>
       </c>
@@ -1875,9 +1870,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="25" t="s">
         <v>29</v>
       </c>
@@ -1888,9 +1883,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="5" t="s">
         <v>43</v>
       </c>
@@ -1901,9 +1896,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="5" t="s">
         <v>134</v>
       </c>
@@ -1912,9 +1907,9 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="26" t="s">
         <v>44</v>
       </c>
@@ -1923,11 +1918,11 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="30" t="s">
@@ -1942,9 +1937,9 @@
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="4" t="s">
         <v>58</v>
       </c>
@@ -1955,9 +1950,9 @@
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="9" t="s">
         <v>60</v>
       </c>
@@ -1968,9 +1963,9 @@
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="30" t="s">
         <v>63</v>
       </c>
@@ -1981,9 +1976,9 @@
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="57">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="30" t="s">
         <v>105</v>
       </c>
@@ -1996,9 +1991,9 @@
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="5" t="s">
         <v>48</v>
       </c>
@@ -2009,9 +2004,9 @@
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="29" t="s">
         <v>50</v>
       </c>
@@ -2022,9 +2017,9 @@
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="25" t="s">
         <v>171</v>
       </c>
@@ -2037,9 +2032,9 @@
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="9" t="s">
         <v>52</v>
       </c>
@@ -2048,27 +2043,27 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="9" t="s">
         <v>56</v>
       </c>
@@ -2079,24 +2074,22 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.5">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="30" t="s">
         <v>62</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="E22" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="37" t="s">
+      <c r="E22" s="31"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="44" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -2105,27 +2098,27 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="5" t="s">
         <v>68</v>
       </c>
@@ -2134,14 +2127,14 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="42.75">
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>36</v>
       </c>
@@ -2156,11 +2149,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="42.75">
-      <c r="A29" s="37" t="s">
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A29" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="44" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="25" t="s">
@@ -2173,9 +2166,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="42.75">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="25" t="s">
         <v>142</v>
       </c>
@@ -2186,9 +2179,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="25" t="s">
         <v>70</v>
       </c>
@@ -2197,9 +2190,9 @@
       </c>
       <c r="E31" s="19"/>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="5" t="s">
         <v>71</v>
       </c>
@@ -2208,9 +2201,9 @@
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="57">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
+    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="25" t="s">
         <v>34</v>
       </c>
@@ -2221,9 +2214,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="25" t="s">
         <v>72</v>
       </c>
@@ -2232,9 +2225,9 @@
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="42.75">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="5" t="s">
         <v>73</v>
       </c>
@@ -2245,9 +2238,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="5" t="s">
         <v>74</v>
       </c>
@@ -2258,9 +2251,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="25" t="s">
         <v>111</v>
       </c>
@@ -2269,11 +2262,11 @@
       </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="43" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="40" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -2286,9 +2279,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="25" t="s">
         <v>168</v>
       </c>
@@ -2299,9 +2292,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="5" t="s">
         <v>169</v>
       </c>
@@ -2312,9 +2305,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="5" t="s">
         <v>170</v>
       </c>
@@ -2325,18 +2318,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="37" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -2345,47 +2338,47 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="37" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -2398,9 +2391,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="44"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="5" t="s">
         <v>17</v>
       </c>
@@ -2411,9 +2404,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="5" t="s">
         <v>18</v>
       </c>
@@ -2422,9 +2415,9 @@
       </c>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="37"/>
-      <c r="B51" s="37"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="44"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="5" t="s">
         <v>83</v>
       </c>
@@ -2435,9 +2428,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="37"/>
-      <c r="B52" s="37"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="5" t="s">
         <v>94</v>
       </c>
@@ -2446,38 +2439,38 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="37"/>
-      <c r="B53" s="37"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="5" t="s">
         <v>117</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="37"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="38" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="38"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="25" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="42.75">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
+    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
       <c r="E55" s="27" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="37"/>
-      <c r="B56" s="37"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="5" t="s">
         <v>146</v>
       </c>
@@ -2486,18 +2479,18 @@
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="37"/>
-      <c r="B57" s="37"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="5" t="s">
         <v>156</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="5" t="s">
         <v>145</v>
       </c>
@@ -2508,18 +2501,18 @@
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37"/>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="44"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="5" t="s">
         <v>157</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="37"/>
-      <c r="B60" s="37"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="44"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="5" t="s">
         <v>135</v>
       </c>
@@ -2528,9 +2521,9 @@
       </c>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="37"/>
-      <c r="B61" s="37"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="5" t="s">
         <v>109</v>
       </c>
@@ -2539,11 +2532,11 @@
       </c>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="37" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="44" t="s">
         <v>19</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -2552,54 +2545,54 @@
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="37"/>
-      <c r="B63" s="37"/>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="44"/>
+      <c r="B63" s="44"/>
       <c r="C63" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="37"/>
-      <c r="B64" s="37"/>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="44"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="37"/>
-      <c r="B65" s="37"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="44"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="37"/>
-      <c r="B66" s="37"/>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="44"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="5" t="s">
         <v>129</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="17"/>
       <c r="D67" s="18"/>
       <c r="E67" s="20"/>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="40" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="40" t="s">
         <v>86</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -2608,18 +2601,18 @@
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="41"/>
-      <c r="B69" s="44"/>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="38"/>
+      <c r="B69" s="41"/>
       <c r="C69" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="41"/>
-      <c r="B70" s="44"/>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="38"/>
+      <c r="B70" s="41"/>
       <c r="C70" s="5" t="s">
         <v>82</v>
       </c>
@@ -2628,9 +2621,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="41"/>
-      <c r="B71" s="44"/>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="38"/>
+      <c r="B71" s="41"/>
       <c r="C71" s="5" t="s">
         <v>84</v>
       </c>
@@ -2641,9 +2634,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="41"/>
-      <c r="B72" s="44"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="38"/>
+      <c r="B72" s="41"/>
       <c r="C72" s="5" t="s">
         <v>85</v>
       </c>
@@ -2652,9 +2645,9 @@
       </c>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="41"/>
-      <c r="B73" s="44"/>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="38"/>
+      <c r="B73" s="41"/>
       <c r="C73" s="5" t="s">
         <v>86</v>
       </c>
@@ -2665,9 +2658,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="41"/>
-      <c r="B74" s="44"/>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="38"/>
+      <c r="B74" s="41"/>
       <c r="C74" s="4" t="s">
         <v>89</v>
       </c>
@@ -2678,9 +2671,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="41"/>
-      <c r="B75" s="44"/>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="38"/>
+      <c r="B75" s="41"/>
       <c r="C75" s="4" t="s">
         <v>95</v>
       </c>
@@ -2689,9 +2682,9 @@
       </c>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="41"/>
-      <c r="B76" s="44"/>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="38"/>
+      <c r="B76" s="41"/>
       <c r="C76" s="4" t="s">
         <v>98</v>
       </c>
@@ -2702,9 +2695,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="41"/>
-      <c r="B77" s="44"/>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="38"/>
+      <c r="B77" s="41"/>
       <c r="C77" s="4" t="s">
         <v>101</v>
       </c>
@@ -2715,9 +2708,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="42"/>
-      <c r="B78" s="45"/>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="39"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="4" t="s">
         <v>90</v>
       </c>
@@ -2726,7 +2719,7 @@
       </c>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="1:5" ht="71.25">
+    <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A79" s="22"/>
       <c r="B79" s="23"/>
       <c r="C79" s="4" t="s">
@@ -2741,6 +2734,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="B10:B22"/>
+    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
     <mergeCell ref="A68:A78"/>
     <mergeCell ref="B68:B78"/>
     <mergeCell ref="A1:D1"/>
@@ -2757,11 +2755,6 @@
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A29:A37"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="B10:B22"/>
-    <mergeCell ref="A10:A22"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2778,57 +2771,57 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2848,14 +2841,14 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25">
+    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>181</v>
       </c>
@@ -2866,7 +2859,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25">
+    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
         <v>184</v>
       </c>
@@ -2877,7 +2870,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25">
+    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="47"/>
       <c r="B3" s="35" t="s">
         <v>187</v>
@@ -2886,7 +2879,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="36.75" customHeight="1">
+    <row r="4" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>189</v>
       </c>
@@ -2897,7 +2890,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34.5">
+    <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="35" t="s">
         <v>193</v>
@@ -2906,7 +2899,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34.5">
+    <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A6" s="47"/>
       <c r="B6" s="35" t="s">
         <v>195</v>
@@ -2915,7 +2908,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34.5">
+    <row r="7" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A7" s="47"/>
       <c r="B7" s="35" t="s">
         <v>190</v>
@@ -2924,7 +2917,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="37.5" customHeight="1">
+    <row r="8" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>198</v>
       </c>
@@ -2935,7 +2928,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.25">
+    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" s="35" t="s">
         <v>202</v>
@@ -2944,7 +2937,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34.5">
+    <row r="10" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
       <c r="B10" s="35" t="s">
         <v>199</v>
@@ -2953,7 +2946,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1">
+    <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>205</v>
       </c>
@@ -2964,14 +2957,14 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17.25" hidden="1">
+    <row r="12" spans="1:3" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="49"/>
       <c r="B12" s="35" t="s">
         <v>207</v>
       </c>
       <c r="C12" s="49"/>
     </row>
-    <row r="13" spans="1:3" ht="17.25">
+    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>208</v>
       </c>
@@ -2982,7 +2975,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.25">
+    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="35" t="s">
         <v>212</v>
@@ -2991,7 +2984,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.25">
+    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="47"/>
       <c r="B15" s="35" t="s">
         <v>214</v>
@@ -3000,7 +2993,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="34.5">
+    <row r="16" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
       <c r="B16" s="35" t="s">
         <v>216</v>
@@ -3009,7 +3002,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34.5">
+    <row r="17" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
       <c r="B17" s="35" t="s">
         <v>209</v>
@@ -3018,7 +3011,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17.25">
+    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>219</v>
       </c>
@@ -3029,7 +3022,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17.25">
+    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
       <c r="B19" s="35" t="s">
         <v>210</v>
@@ -3038,7 +3031,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.25">
+    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="47"/>
       <c r="B20" s="35" t="s">
         <v>212</v>
@@ -3047,7 +3040,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.25">
+    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="47"/>
       <c r="B21" s="35" t="s">
         <v>214</v>
@@ -3056,7 +3049,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="51.75">
+    <row r="22" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A22" s="47"/>
       <c r="B22" s="35" t="s">
         <v>220</v>
@@ -3065,7 +3058,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34.5">
+    <row r="23" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>226</v>
       </c>
@@ -3076,42 +3069,42 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.25">
+    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="47"/>
       <c r="B24" s="35" t="s">
         <v>233</v>
       </c>
       <c r="C24" s="36"/>
     </row>
-    <row r="25" spans="1:3" ht="17.25">
+    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="47"/>
       <c r="B25" s="35" t="s">
         <v>210</v>
       </c>
       <c r="C25" s="36"/>
     </row>
-    <row r="26" spans="1:3" ht="17.25">
+    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="47"/>
       <c r="B26" s="35" t="s">
         <v>234</v>
       </c>
       <c r="C26" s="36"/>
     </row>
-    <row r="27" spans="1:3" ht="17.25">
+    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="47"/>
       <c r="B27" s="35" t="s">
         <v>235</v>
       </c>
       <c r="C27" s="36"/>
     </row>
-    <row r="28" spans="1:3" ht="17.25">
+    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="47"/>
       <c r="B28" s="35" t="s">
         <v>220</v>
       </c>
       <c r="C28" s="36"/>
     </row>
-    <row r="29" spans="1:3" ht="17.25">
+    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>229</v>
       </c>
@@ -3120,42 +3113,42 @@
       </c>
       <c r="C29" s="36"/>
     </row>
-    <row r="30" spans="1:3" ht="17.25">
+    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="47"/>
       <c r="B30" s="35" t="s">
         <v>210</v>
       </c>
       <c r="C30" s="36"/>
     </row>
-    <row r="31" spans="1:3" ht="17.25">
+    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="47"/>
       <c r="B31" s="35" t="s">
         <v>212</v>
       </c>
       <c r="C31" s="36"/>
     </row>
-    <row r="32" spans="1:3" ht="17.25">
+    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="47"/>
       <c r="B32" s="35" t="s">
         <v>214</v>
       </c>
       <c r="C32" s="36"/>
     </row>
-    <row r="33" spans="1:3" ht="17.25">
+    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="47"/>
       <c r="B33" s="35" t="s">
         <v>216</v>
       </c>
       <c r="C33" s="36"/>
     </row>
-    <row r="34" spans="1:3" ht="17.25">
+    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34" s="35" t="s">
         <v>209</v>
       </c>
       <c r="C34" s="36"/>
     </row>
-    <row r="35" spans="1:3" ht="17.25">
+    <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
         <v>230</v>
       </c>
@@ -3166,7 +3159,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34.5">
+    <row r="36" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>185</v>
       </c>
@@ -3177,7 +3170,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34.5">
+    <row r="37" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A37" s="47"/>
       <c r="B37" s="35" t="s">
         <v>239</v>
@@ -3186,7 +3179,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34.5">
+    <row r="38" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A38" s="47"/>
       <c r="B38" s="35" t="s">
         <v>240</v>
@@ -3197,16 +3190,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A29:A34"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A29:A34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
